--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/Sprint 3/Impediment_Log_Sprint 3.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/Sprint 3/Impediment_Log_Sprint 3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29518"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29523"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danixa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="420" documentId="13_ncr:1_{6B7C97D9-700E-4CE9-A51E-46CF5633DA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A673211-C769-48BF-99C6-FAF3D72083ED}"/>
+  <xr:revisionPtr revIDLastSave="434" documentId="13_ncr:1_{6B7C97D9-700E-4CE9-A51E-46CF5633DA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA0BA221-9175-4E29-BAA1-F56A5875B77B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{ECCB6707-899D-4E21-ABC5-FA6931BD51AA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
   <si>
     <t>Scrum Project</t>
   </si>
@@ -194,7 +194,7 @@
     <t>Dificultad para medir efectividad emocional en usuarios.</t>
   </si>
   <si>
-    <t>Revisar el método de encuesta y actualización de base de datos</t>
+    <t>Revisar el método de encuesta</t>
   </si>
   <si>
     <t>IMP-008</t>
@@ -206,10 +206,16 @@
     <t>Tester</t>
   </si>
   <si>
-    <t>Pendiente</t>
-  </si>
-  <si>
     <t>Se realizará un recordatorio automático a los 15 minutos de uso</t>
+  </si>
+  <si>
+    <t>IMP-009</t>
+  </si>
+  <si>
+    <t>Modificacion de Arquitectura de Capa Backend</t>
+  </si>
+  <si>
+    <t>Se cambió la Base de Datos Tradicional por un Sistema de almacenamiento en Nube y controlador Lógico de Nube</t>
   </si>
 </sst>
 </file>
@@ -733,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4029EFBE-DA52-4DD7-8B40-86543502F354}">
-  <dimension ref="B3:K50"/>
+  <dimension ref="B3:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="F12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -1052,7 +1058,7 @@
         <v>48</v>
       </c>
       <c r="E21" s="15">
-        <v>45972</v>
+        <v>45970</v>
       </c>
       <c r="F21" s="14">
         <v>3</v>
@@ -1091,16 +1097,45 @@
         <v>25</v>
       </c>
       <c r="H22" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="J22" s="15">
+        <v>45988</v>
+      </c>
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="2:11" ht="27">
+      <c r="B23" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="E23" s="19"/>
+      <c r="C23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="15">
+        <v>45958</v>
+      </c>
+      <c r="F23" s="14">
+        <v>4</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J23" s="15">
+        <v>45967</v>
+      </c>
+      <c r="K23" s="14"/>
     </row>
     <row r="24" spans="2:11">
       <c r="E24" s="19"/>
@@ -1114,7 +1149,9 @@
     <row r="27" spans="2:11">
       <c r="E27" s="19"/>
     </row>
-    <row r="28" spans="2:11"/>
+    <row r="28" spans="2:11">
+      <c r="E28" s="19"/>
+    </row>
     <row r="29" spans="2:11"/>
     <row r="30" spans="2:11"/>
     <row r="31" spans="2:11"/>
@@ -1125,29 +1162,18 @@
     <row r="36" spans="2:11"/>
     <row r="37" spans="2:11"/>
     <row r="38" spans="2:11"/>
-    <row r="39" spans="2:11">
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-    </row>
+    <row r="39" spans="2:11"/>
     <row r="40" spans="2:11">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
     </row>
     <row r="41" spans="2:11">
       <c r="B41" s="2"/>
@@ -1269,6 +1295,18 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
